--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/TongHopNhanSuTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/TongHopNhanSuTemplate.xlsx
@@ -520,6 +520,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,18 +532,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,6 +547,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,6 +572,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -860,8 +860,10 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13:E14"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,129 +885,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="29">
         <f ca="1">TODAY()</f>
-        <v>44741</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
+        <v>44749</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1039,15 +1041,15 @@
       <c r="W4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="27"/>
+      <c r="X4" s="41"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25">
         <f>B5-C5</f>
         <v>0</v>
       </c>
@@ -1087,12 +1089,12 @@
       <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="20"/>
       <c r="H6" s="10" t="s">
         <v>30</v>
@@ -1121,10 +1123,10 @@
       <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="22"/>
       <c r="F7" s="20"/>
       <c r="G7" s="10" t="s">
@@ -1157,10 +1159,10 @@
       <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="21">
         <f>E5</f>
         <v>44713</v>
@@ -1198,10 +1200,10 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="22"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -1232,12 +1234,12 @@
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25">
         <f>B10-C10</f>
         <v>0</v>
       </c>
@@ -1277,12 +1279,12 @@
       <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="20"/>
       <c r="H11" s="10" t="s">
         <v>30</v>
@@ -1311,10 +1313,10 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="22"/>
       <c r="F12" s="20"/>
       <c r="G12" s="10" t="s">
@@ -1347,10 +1349,10 @@
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="21">
         <f>E10</f>
         <v>44714</v>
@@ -1388,10 +1390,10 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="22"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/TongHopNhanSuTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/TongHopNhanSuTemplate.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$4:$AB$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>BẢNG TỔNG HỢP TÌNH HÌNH NHÂN SỰ
 WHC 근태 현황</t>
@@ -452,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,29 +508,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -576,6 +555,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,13 +872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,129 +900,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="22">
         <f ca="1">TODAY()</f>
-        <v>44749</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31"/>
+        <v>44776</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="32" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1041,25 +1056,25 @@
       <c r="W4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="41"/>
+      <c r="X4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44">
         <f>B5-C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="35">
         <v>44713</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="38" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -1088,14 +1103,14 @@
       </c>
       <c r="X5" s="12"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1123,12 +1138,12 @@
       <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1158,19 +1173,19 @@
       </c>
       <c r="X7" s="12"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="21">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="35">
         <f>E5</f>
         <v>44713</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="38" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -1200,19 +1215,19 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11">
-        <f t="shared" ref="J9" si="2">I9-W9</f>
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
         <v>0</v>
       </c>
       <c r="K9" s="11"/>
@@ -1228,36 +1243,27 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11">
-        <f t="shared" ref="W9:W10" si="3">SUM(M9:U9)</f>
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
         <v>0</v>
       </c>
       <c r="X9" s="14"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25">
-        <f>B10-C10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>44714</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>32</v>
-      </c>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11">
-        <f>I10-W10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="11"/>
@@ -1276,18 +1282,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X10" s="12"/>
+      <c r="X10" s="14"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="20"/>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="35">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11">
@@ -1307,23 +1324,21 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11">
-        <f>SUM(M11:V11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="10" t="s">
-        <v>28</v>
-      </c>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11">
@@ -1338,33 +1353,28 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11">
-        <f t="shared" ref="W12" si="4">SUM(M12:U12)</f>
+        <f>SUM(M12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="21">
-        <f>E10</f>
-        <v>44714</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>26</v>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11">
@@ -1379,30 +1389,37 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="13"/>
+      <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11">
-        <f>SUM(L13:U13)</f>
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
         <v>0</v>
       </c>
       <c r="X13" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="35">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11">
-        <f t="shared" ref="J14" si="5">I14-W14</f>
+        <f>I14-W14</f>
         <v>0</v>
       </c>
       <c r="K14" s="11"/>
@@ -1418,16 +1435,106 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11">
-        <f t="shared" ref="W14" si="6">SUM(M14:U14)</f>
+        <f>SUM(L14:U14)</f>
         <v>0</v>
       </c>
       <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AB4">
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="35">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:A4"/>
@@ -1443,26 +1550,6 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:W3"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/TongHopNhanSuTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/TongHopNhanSuTemplate.xlsx
@@ -9,13 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="CSP" sheetId="1" r:id="rId1"/>
+    <sheet name="KHO" sheetId="4" r:id="rId2"/>
+    <sheet name="LFEM" sheetId="5" r:id="rId3"/>
+    <sheet name="QC" sheetId="6" r:id="rId4"/>
+    <sheet name="SMT" sheetId="7" r:id="rId5"/>
+    <sheet name="SP" sheetId="8" r:id="rId6"/>
+    <sheet name="UTILITY" sheetId="9" r:id="rId7"/>
+    <sheet name="WLP1" sheetId="10" r:id="rId8"/>
+    <sheet name="WLP2" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSP!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KHO!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LFEM!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">QC!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SMT!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SP!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">UTILITY!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'WLP1'!$A$4:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'WLP2'!$A$4:$AB$4</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
@@ -27,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="33">
   <si>
     <t>BẢNG TỔNG HỢP TÌNH HÌNH NHÂN SỰ
 WHC 근태 현황</t>
@@ -452,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +527,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,42 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,11 +899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,129 +925,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="37">
         <f ca="1">TODAY()</f>
-        <v>44776</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1056,25 +1081,25 @@
       <c r="W4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="34"/>
+      <c r="X4" s="49"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
         <f>B5-C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="26">
         <v>44713</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -1104,13 +1129,13 @@
       <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1138,12 +1163,12 @@
       <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="39"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1174,18 +1199,18 @@
       <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
         <f>E5</f>
         <v>44713</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -1215,13 +1240,13 @@
       <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
@@ -1249,12 +1274,12 @@
       <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1285,22 +1310,22 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
         <f>B11-C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="26">
         <v>44714</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -1330,13 +1355,13 @@
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1364,12 +1389,12 @@
       <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1400,18 +1425,18 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
         <f>E11</f>
         <v>44714</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -1441,13 +1466,13 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="39"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1475,12 +1500,12 @@
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="10" t="s">
         <v>28</v>
       </c>
@@ -1515,26 +1540,6 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:A4"/>
@@ -1550,6 +1555,5506 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:W3"/>
     <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F5:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16" width="6.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="23" width="6.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="93.140625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="55" style="2" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f ca="1">TODAY()</f>
+        <v>45118</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32">
+        <f>B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <f>I5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5" si="0">SUM(M5:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <f>I6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <f>SUM(M6:V6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <f>I7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7" si="1">SUM(M7:U7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26">
+        <f>E5</f>
+        <v>44713</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <f>I8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <f>SUM(L8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:J10" si="2">I9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <f t="shared" ref="W9:W11" si="3">SUM(M9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32">
+        <f>B11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44714</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <f>I11-W11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <f>I12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f>SUM(M12:V12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <f>I13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
+        <f t="shared" ref="W13" si="4">SUM(M13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26">
+        <f>E11</f>
+        <v>44714</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <f>I14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11">
+        <f>SUM(L14:U14)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:J16" si="5">I15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11">
+        <f t="shared" ref="W15:W16" si="6">SUM(M15:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:AB4">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
